--- a/grabDoll/config/user_lv.xlsx
+++ b/grabDoll/config/user_lv.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -45,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,7 +173,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -208,7 +207,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,21 +382,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -409,7 +407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -420,7 +418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>110001</v>
       </c>
@@ -428,10 +426,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>110002</v>
       </c>
@@ -439,10 +437,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>110003</v>
       </c>
@@ -450,10 +448,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>110004</v>
       </c>
@@ -461,10 +459,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>110005</v>
       </c>
@@ -472,7 +470,502 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>600</v>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>110006</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>121.00000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>110007</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>110008</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>110009</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>110010</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>110011</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>110012</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>110013</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>110014</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>110015</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>110016</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>110017</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>110018</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>110019</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>110020</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>110021</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>110022</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>110023</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>110024</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>110025</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>110026</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>110027</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>110028</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>110029</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>110030</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>110031</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>110032</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>110033</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>110034</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>110035</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>110036</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>110037</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>110038</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>110039</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>110040</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>110041</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>110042</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>110043</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>110044</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>110045</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>110046</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>110047</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>110048</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>6626</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>110049</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>7289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>110050</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>8017</v>
       </c>
     </row>
   </sheetData>
@@ -482,12 +975,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -495,12 +988,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
